--- a/result/22_pred.xlsx
+++ b/result/22_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,442 +447,242 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1038000.363954041</v>
+        <v>1038021.182030117</v>
       </c>
       <c r="B2" t="n">
-        <v>783173.1309346776</v>
+        <v>783149.3274116508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1037988.76874248</v>
+        <v>1038005.721748036</v>
       </c>
       <c r="B3" t="n">
-        <v>783200.7995282245</v>
+        <v>783186.2188697134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1037977.17353092</v>
+        <v>1037990.261465956</v>
       </c>
       <c r="B4" t="n">
-        <v>783228.4681217715</v>
+        <v>783223.1103277761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1037965.578319359</v>
+        <v>1037974.801183875</v>
       </c>
       <c r="B5" t="n">
-        <v>783256.1367153184</v>
+        <v>783260.0017858386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1037953.983107799</v>
+        <v>1037959.340901794</v>
       </c>
       <c r="B6" t="n">
-        <v>783283.8053088655</v>
+        <v>783296.8932439013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1037942.387896238</v>
+        <v>1037943.880619713</v>
       </c>
       <c r="B7" t="n">
-        <v>783311.4739024125</v>
+        <v>783333.7847019639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1037930.792684678</v>
+        <v>1038058.073488179</v>
       </c>
       <c r="B8" t="n">
-        <v>783339.1424959594</v>
+        <v>783164.7876937315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1038039.627759148</v>
+        <v>1038042.613206099</v>
       </c>
       <c r="B9" t="n">
-        <v>783157.0575526911</v>
+        <v>783201.6791517941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1038028.032547588</v>
+        <v>1038027.152924018</v>
       </c>
       <c r="B10" t="n">
-        <v>783184.7261462382</v>
+        <v>783238.5706098567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1038016.437336027</v>
+        <v>1038011.692641938</v>
       </c>
       <c r="B11" t="n">
-        <v>783212.3947397851</v>
+        <v>783275.4620679193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1038004.842124467</v>
+        <v>1037996.232359857</v>
       </c>
       <c r="B12" t="n">
-        <v>783240.0633333321</v>
+        <v>783312.3535259819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1037993.246912906</v>
+        <v>1037980.772077776</v>
       </c>
       <c r="B13" t="n">
-        <v>783267.731926879</v>
+        <v>783349.2449840446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1037981.651701346</v>
+        <v>1038094.964946242</v>
       </c>
       <c r="B14" t="n">
-        <v>783295.400520426</v>
+        <v>783180.2479758122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1037970.056489785</v>
+        <v>1038079.504664161</v>
       </c>
       <c r="B15" t="n">
-        <v>783323.0691139729</v>
+        <v>783217.1394338747</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1037958.461278225</v>
+        <v>1038064.044382081</v>
       </c>
       <c r="B16" t="n">
-        <v>783350.7377075199</v>
+        <v>783254.0308919374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1038067.296352695</v>
+        <v>1038048.5841</v>
       </c>
       <c r="B17" t="n">
-        <v>783168.6527642517</v>
+        <v>783290.92235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1038055.701141135</v>
+        <v>1038033.123817919</v>
       </c>
       <c r="B18" t="n">
-        <v>783196.3213577986</v>
+        <v>783327.8138080626</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1038044.105929574</v>
+        <v>1038017.663535839</v>
       </c>
       <c r="B19" t="n">
-        <v>783223.9899513456</v>
+        <v>783364.7052661253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1038032.510718014</v>
+        <v>1038131.856404305</v>
       </c>
       <c r="B20" t="n">
-        <v>783251.6585448926</v>
+        <v>783195.7082578929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1038020.915506453</v>
+        <v>1038116.396122224</v>
       </c>
       <c r="B21" t="n">
-        <v>783279.3271384395</v>
+        <v>783232.5997159554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1038009.320294893</v>
+        <v>1038100.935840143</v>
       </c>
       <c r="B22" t="n">
-        <v>783306.9957319865</v>
+        <v>783269.4911740181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1037997.725083332</v>
+        <v>1038085.475558063</v>
       </c>
       <c r="B23" t="n">
-        <v>783334.6643255334</v>
+        <v>783306.3826320807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1037986.129871772</v>
+        <v>1038070.015275982</v>
       </c>
       <c r="B24" t="n">
-        <v>783362.3329190804</v>
+        <v>783343.2740901433</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1038094.964946242</v>
+        <v>1038054.554993901</v>
       </c>
       <c r="B25" t="n">
-        <v>783180.2479758122</v>
+        <v>783380.165548206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1038083.369734682</v>
+        <v>1038168.747862367</v>
       </c>
       <c r="B26" t="n">
-        <v>783207.9165693591</v>
+        <v>783211.1685399736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1038071.774523121</v>
+        <v>1038153.287580287</v>
       </c>
       <c r="B27" t="n">
-        <v>783235.5851629061</v>
+        <v>783248.0599980361</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1038060.179311561</v>
+        <v>1038137.827298206</v>
       </c>
       <c r="B28" t="n">
-        <v>783263.2537564531</v>
+        <v>783284.9514560987</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1038048.5841</v>
+        <v>1038122.367016125</v>
       </c>
       <c r="B29" t="n">
-        <v>783290.92235</v>
+        <v>783321.8429141614</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1038036.98888844</v>
+        <v>1038106.906734045</v>
       </c>
       <c r="B30" t="n">
-        <v>783318.590943547</v>
+        <v>783358.734372224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1038025.393676879</v>
+        <v>1038091.446451964</v>
       </c>
       <c r="B31" t="n">
-        <v>783346.2595370939</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1038013.798465319</v>
-      </c>
-      <c r="B32" t="n">
-        <v>783373.9281306409</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1038122.633539789</v>
-      </c>
-      <c r="B33" t="n">
-        <v>783191.8431873727</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1038111.038328229</v>
-      </c>
-      <c r="B34" t="n">
-        <v>783219.5117809196</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1038099.443116668</v>
-      </c>
-      <c r="B35" t="n">
-        <v>783247.1803744666</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1038087.847905108</v>
-      </c>
-      <c r="B36" t="n">
-        <v>783274.8489680135</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1038076.252693547</v>
-      </c>
-      <c r="B37" t="n">
-        <v>783302.5175615605</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1038064.657481987</v>
-      </c>
-      <c r="B38" t="n">
-        <v>783330.1861551075</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1038053.062270426</v>
-      </c>
-      <c r="B39" t="n">
-        <v>783357.8547486544</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1038041.467058866</v>
-      </c>
-      <c r="B40" t="n">
-        <v>783385.5233422014</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1038150.302133336</v>
-      </c>
-      <c r="B41" t="n">
-        <v>783203.4383989332</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1038138.706921776</v>
-      </c>
-      <c r="B42" t="n">
-        <v>783231.1069924801</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1038127.111710215</v>
-      </c>
-      <c r="B43" t="n">
-        <v>783258.7755860271</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1038115.516498654</v>
-      </c>
-      <c r="B44" t="n">
-        <v>783286.444179574</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1038103.921287094</v>
-      </c>
-      <c r="B45" t="n">
-        <v>783314.112773121</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1038092.326075534</v>
-      </c>
-      <c r="B46" t="n">
-        <v>783341.7813666679</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1038080.730863973</v>
-      </c>
-      <c r="B47" t="n">
-        <v>783369.4499602149</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1038069.135652413</v>
-      </c>
-      <c r="B48" t="n">
-        <v>783397.1185537619</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1038177.970726883</v>
-      </c>
-      <c r="B49" t="n">
-        <v>783215.0336104936</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1038166.375515323</v>
-      </c>
-      <c r="B50" t="n">
-        <v>783242.7022040406</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1038154.780303762</v>
-      </c>
-      <c r="B51" t="n">
-        <v>783270.3707975876</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1038143.185092201</v>
-      </c>
-      <c r="B52" t="n">
-        <v>783298.0393911345</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1038131.589880641</v>
-      </c>
-      <c r="B53" t="n">
-        <v>783325.7079846816</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1038119.99466908</v>
-      </c>
-      <c r="B54" t="n">
-        <v>783353.3765782285</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1038108.39945752</v>
-      </c>
-      <c r="B55" t="n">
-        <v>783381.0451717755</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1038096.80424596</v>
-      </c>
-      <c r="B56" t="n">
-        <v>783408.7137653225</v>
+        <v>783395.6258302866</v>
       </c>
     </row>
   </sheetData>
